--- a/data/trans_dic/P36$cafe-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Estudios-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9111029765525693</v>
+        <v>0.9117738273167441</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.905352216849264</v>
+        <v>0.9064598059440052</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8920968691555573</v>
+        <v>0.8913351531637824</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9224790722874336</v>
+        <v>0.9226005015273975</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9413176274251205</v>
+        <v>0.9410305839072443</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9462504758038313</v>
+        <v>0.9469963039868691</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9216709063919031</v>
+        <v>0.9224515241065129</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.9306640789458073</v>
+        <v>0.9314235318881156</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9279215997261906</v>
+        <v>0.9283243024895304</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9430558632794612</v>
+        <v>0.9449122569095993</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9419565970706569</v>
+        <v>0.9412994849074594</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9325924571141632</v>
+        <v>0.9323074775588339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9503099356817609</v>
+        <v>0.9487752478427594</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9647267872935993</v>
+        <v>0.9640470276134784</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.97179507124666</v>
+        <v>0.9715551751118199</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9430330399859397</v>
+        <v>0.9432110228287326</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9513608416073279</v>
+        <v>0.95141044508062</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9511186697974615</v>
+        <v>0.9509548153921005</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8939085814622163</v>
+        <v>0.8955033620826027</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8963458478457992</v>
+        <v>0.8944306016089728</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8840104381507949</v>
+        <v>0.8842452416455838</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.882500146853577</v>
+        <v>0.8832036755041219</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9030680053152126</v>
+        <v>0.9027441637113769</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9143456391631857</v>
+        <v>0.9134264226825871</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8948290853690577</v>
+        <v>0.8938317532008432</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9033435153247767</v>
+        <v>0.9029182264777539</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9023439033917703</v>
+        <v>0.9025545329553903</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9228528453758588</v>
+        <v>0.9250882356533126</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9228220669508895</v>
+        <v>0.9223139505240358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9113310501223071</v>
+        <v>0.9120838564242716</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9120419376892512</v>
+        <v>0.9133000881295021</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9300560202803355</v>
+        <v>0.9298312221978537</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9376867046360209</v>
+        <v>0.9372807893562028</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9149324720918987</v>
+        <v>0.9141674508486912</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9230783884713877</v>
+        <v>0.92245464826524</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9214879566189369</v>
+        <v>0.9208528580897941</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8790901508575576</v>
+        <v>0.8754478265115007</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8848549316979035</v>
+        <v>0.8840136099882093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9166058797467583</v>
+        <v>0.9134939465847245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.886364683529493</v>
+        <v>0.8856212118840269</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9354065419988674</v>
+        <v>0.9341352786644603</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9043469178289297</v>
+        <v>0.9062972656597541</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8897607450295693</v>
+        <v>0.8896833953291153</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9185709242134038</v>
+        <v>0.9186973632267801</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.916339795096703</v>
+        <v>0.9179908318717577</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9303800524046427</v>
+        <v>0.9289566249793214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9386955650528125</v>
+        <v>0.9379906455350503</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9579672236998192</v>
+        <v>0.9584111773907477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9381901944635109</v>
+        <v>0.9368438430625726</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9750731367638521</v>
+        <v>0.9751946450760941</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9497038765578413</v>
+        <v>0.9495227893365897</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9265152712889884</v>
+        <v>0.927103026525115</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9520455922560205</v>
+        <v>0.9506055568306956</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9475978540823898</v>
+        <v>0.9471945733413816</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9043784777744864</v>
+        <v>0.9051657086680691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8975171658455899</v>
+        <v>0.8985242906257522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9277604518917547</v>
+        <v>0.9263112180392791</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.9270634999911819</v>
+        <v>0.9275186102423392</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9186458069576875</v>
+        <v>0.9190387305079224</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9160950185568936</v>
+        <v>0.9154225944986721</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9243578545544267</v>
+        <v>0.925235058543926</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.917872407065102</v>
+        <v>0.9181525451178286</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9443095608215279</v>
+        <v>0.9435434340275436</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9447576028670566</v>
+        <v>0.9437123623050948</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9318341016497808</v>
+        <v>0.9319695874509323</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9289476847602615</v>
+        <v>0.928705520744509</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>936383</v>
+        <v>937073</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>880584</v>
+        <v>881662</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>671358</v>
+        <v>670785</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1211342</v>
+        <v>1211502</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1257378</v>
+        <v>1256995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>940068</v>
+        <v>940809</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2157526</v>
+        <v>2159353</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2148351</v>
+        <v>2150105</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1620177</v>
+        <v>1620880</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>969223</v>
+        <v>971131</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>916187</v>
+        <v>915548</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>701834</v>
+        <v>701619</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>1247888</v>
+        <v>1245873</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1288647</v>
+        <v>1287739</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>965445</v>
+        <v>965207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>2207532</v>
+        <v>2207949</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>2196128</v>
+        <v>2196243</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1660680</v>
+        <v>1660394</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1512878</v>
+        <v>1515577</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1757820</v>
+        <v>1754064</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1833614</v>
+        <v>1834101</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1399313</v>
+        <v>1400429</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1584769</v>
+        <v>1584200</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1816112</v>
+        <v>1814286</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2933298</v>
+        <v>2930029</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3356796</v>
+        <v>3355215</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>3663914</v>
+        <v>3664769</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1561864</v>
+        <v>1565647</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1809743</v>
+        <v>1808746</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1890282</v>
+        <v>1891843</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1446156</v>
+        <v>1448151</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1632129</v>
+        <v>1631735</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1862473</v>
+        <v>1861666</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>2999198</v>
+        <v>2996690</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>3430130</v>
+        <v>3427812</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>3741647</v>
+        <v>3739069</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>483182</v>
+        <v>481180</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>424855</v>
+        <v>424451</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>501279</v>
+        <v>499577</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>422275</v>
+        <v>421921</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>427920</v>
+        <v>427339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>496613</v>
+        <v>497684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>912940</v>
+        <v>912861</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>861262</v>
+        <v>861381</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1004333</v>
+        <v>1006143</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>511373</v>
+        <v>510591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>450706</v>
+        <v>450368</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>523899</v>
+        <v>524142</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>446965</v>
+        <v>446324</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>446067</v>
+        <v>446122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>521520</v>
+        <v>521421</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>950652</v>
+        <v>951255</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>892648</v>
+        <v>891298</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1038593</v>
+        <v>1038151</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3087440</v>
+        <v>3090127</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3027906</v>
+        <v>3031304</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>3291793</v>
+        <v>3286651</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>3271466</v>
+        <v>3273072</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>6395599</v>
+        <v>6398335</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6323342</v>
+        <v>6318701</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3155647</v>
+        <v>3158641</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3096577</v>
+        <v>3097523</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>3350511</v>
+        <v>3347793</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3333906</v>
+        <v>3330217</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6487416</v>
+        <v>6488359</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>6412058</v>
+        <v>6410386</v>
       </c>
     </row>
     <row r="20">
